--- a/Microgrgrid2k15/BranchData.xlsx
+++ b/Microgrgrid2k15/BranchData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LLBrranch" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
   <si>
     <t>bMVA</t>
   </si>
@@ -245,6 +246,12 @@
   <si>
     <t>BRANCH PARAMETERS</t>
   </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -306,6 +313,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,9 +616,11 @@
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="13.21875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.21875" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -638,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.16</v>
+        <v>0.128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -648,52 +660,52 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="G2" s="12" t="s">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="10"/>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="K2">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="12"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="G3" s="12" t="s">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="10"/>
       <c r="J3" t="s">
         <v>8</v>
       </c>
       <c r="K3">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -703,7 +715,7 @@
       </c>
       <c r="B4" s="3">
         <f>F4*B3/F3</f>
-        <v>0.35976740506329108</v>
+        <v>0.43341247484909456</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -715,31 +727,31 @@
       <c r="F4">
         <v>0.39889999999999998</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="10"/>
       <c r="J4" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="4">
         <f>F4*K3/F3</f>
-        <v>0.29412563291139238</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+        <v>0.37401891348088528</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="L5" s="4"/>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -786,7 +798,7 @@
       <c r="N6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="5" t="s">
         <v>27</v>
       </c>
@@ -817,13 +829,16 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.16</v>
+        <f>IF(D7=1,$B$2,IF(D7=4,$F$2,$K$2))</f>
+        <v>0.128</v>
       </c>
       <c r="F7">
-        <v>5.7000000000000002E-2</v>
+        <f>IF(D7=1,$B$3,IF(D7=4,$F$3,$K$3))</f>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G7">
-        <v>0.35980000000000001</v>
+        <f>IF(D7=1,$B$4,IF(D7=4,$F$4,$K$4))</f>
+        <v>0.43341247484909456</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -837,15 +852,15 @@
       </c>
       <c r="K7" s="6">
         <f>(E7*H7/1000)/J7</f>
-        <v>3.3606385213190504E-3</v>
+        <v>2.6885108170552402E-3</v>
       </c>
       <c r="L7">
         <f>(F7*H7/1000)/J7</f>
-        <v>1.1972274732199118E-3</v>
+        <v>1.1342155009451795E-3</v>
       </c>
       <c r="M7">
         <f>H7*J7/(G7*1000000000)</f>
-        <v>1.3232351306281269E-4</v>
+        <v>1.0984916854683716E-4</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -885,9 +900,11 @@
         <v>500</v>
       </c>
       <c r="E8">
+        <f t="shared" ref="E8:E35" si="0">IF(D8=1,$B$2,IF(D8=4,$F$2,$K$2))</f>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F8">
+        <f t="shared" ref="F8:F35" si="1">IF(D8=1,$B$3,IF(D8=4,$F$3,$K$3))</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G8">
@@ -900,30 +917,30 @@
         <v>13.8</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J35" si="0">I8^2/4</f>
+        <f t="shared" ref="J8:J35" si="2">I8^2/4</f>
         <v>47.610000000000007</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" ref="K8:K35" si="1">(E8*H8/1000)/J8</f>
+        <f t="shared" ref="K8:K35" si="3">(E8*H8/1000)/J8</f>
         <v>1.1430245746691869E-3</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L35" si="2">(F8*H8/1000)/J8</f>
+        <f t="shared" ref="L8:L35" si="4">(F8*H8/1000)/J8</f>
         <v>1.8117328292375549E-3</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M35" si="3">H8*J8/(G8*1000000000)</f>
+        <f t="shared" ref="M8:M35" si="5">H8*J8/(G8*1000000000)</f>
         <v>2.9974867346938781E-4</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S35" si="4">(O8/SQRT(1+P8^2))/100</f>
+        <f t="shared" ref="S8:S35" si="6">(O8/SQRT(1+P8^2))/100</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" ref="T8:T35" si="5">P8*S8</f>
+        <f t="shared" ref="T8:T35" si="7">P8*S8</f>
         <v>0</v>
       </c>
     </row>
@@ -941,10 +958,12 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F9">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G9">
         <v>0.39889999999999998</v>
@@ -956,30 +975,30 @@
         <v>13.8</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="1"/>
-        <v>4.7195967233774417E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.4097878596933419E-4</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
-        <v>9.2921655114471739E-4</v>
+        <f t="shared" si="4"/>
+        <v>7.3072883847931098E-4</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.354725495111559E-5</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="S9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -997,9 +1016,11 @@
         <v>500</v>
       </c>
       <c r="E10">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F10">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G10">
@@ -1012,19 +1033,19 @@
         <v>13.8</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1430245746691869E-3</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8117328292375549E-3</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9974867346938781E-4</v>
       </c>
       <c r="N10">
@@ -1043,11 +1064,11 @@
         <v>3.75</v>
       </c>
       <c r="S10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.150728016455091E-3</v>
       </c>
       <c r="T10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7318299387588039E-2</v>
       </c>
     </row>
@@ -1065,10 +1086,12 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F11">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G11">
         <v>0.39889999999999998</v>
@@ -1080,30 +1103,30 @@
         <v>4.16</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3264000000000005</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="1"/>
-        <v>3.783977440828402E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.5443786982248525E-4</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>7.4500739644970412E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.8586815828402361E-4</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5313712709952377E-7</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="S11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1121,10 +1144,12 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.16</v>
+        <f t="shared" si="0"/>
+        <v>0.128</v>
       </c>
       <c r="F12">
-        <v>5.7000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G12">
         <v>0.35980000000000001</v>
@@ -1136,19 +1161,19 @@
         <v>13.8</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="1"/>
-        <v>3.3606385213190504E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.6885108170552402E-3</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
-        <v>1.1972274732199118E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.1342155009451795E-3</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3232351306281269E-4</v>
       </c>
       <c r="N12">
@@ -1167,11 +1192,11 @@
         <v>2</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9980005998000689E-3</v>
       </c>
       <c r="T12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8990202939020344E-2</v>
       </c>
     </row>
@@ -1189,10 +1214,12 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.16</v>
+        <f t="shared" si="0"/>
+        <v>0.128</v>
       </c>
       <c r="F13">
-        <v>5.7000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G13">
         <v>0.35980000000000001</v>
@@ -1204,30 +1231,30 @@
         <v>0.46</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.15425330812854443</v>
+        <f t="shared" si="3"/>
+        <v>0.12340264650283554</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
-        <v>5.4952741020793942E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.2060491493383737E-2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.4983324068927195E-9</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1245,10 +1272,12 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G14">
         <v>0.39889999999999998</v>
@@ -1260,30 +1289,30 @@
         <v>13.8</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="1"/>
-        <v>9.4391934467548833E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.8819575719386684E-3</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
-        <v>1.8584331022894348E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.461457676958622E-3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6709450990223118E-4</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1301,9 +1330,11 @@
         <v>500</v>
       </c>
       <c r="E15">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F15">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G15">
@@ -1316,30 +1347,30 @@
         <v>13.8</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2350346565847509E-5</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9575719386683468E-5</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2387755102040821E-6</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1357,10 +1388,12 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F16">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G16">
         <v>0.39889999999999998</v>
@@ -1372,30 +1405,30 @@
         <v>4.16</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3264000000000005</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="1"/>
-        <v>2.225869082840237E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.4378698224852063E-4</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
-        <v>4.382396449704142E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.4462832840236686E-4</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2537478064677867E-7</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1413,10 +1446,12 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F17">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G17">
         <v>0.39889999999999998</v>
@@ -1428,30 +1463,30 @@
         <v>4.16</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3264000000000005</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4839127218934909E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.9585798816568048E-4</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
-        <v>2.9215976331360948E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.2975221893491125E-4</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1691652043118576E-7</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1469,10 +1504,12 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F18">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G18">
         <v>0.39889999999999998</v>
@@ -1484,30 +1521,30 @@
         <v>4.16</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3264000000000005</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="1"/>
-        <v>3.783977440828402E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.5443786982248525E-4</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
-        <v>7.4500739644970412E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.8586815828402361E-4</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5313712709952377E-7</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="S18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1525,10 +1562,12 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F19">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G19">
         <v>0.39889999999999998</v>
@@ -1540,19 +1579,19 @@
         <v>4.16</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3264000000000005</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="1"/>
-        <v>3.783977440828402E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.5443786982248525E-4</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
-        <v>7.4500739644970412E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.8586815828402361E-4</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5313712709952377E-7</v>
       </c>
       <c r="N19">
@@ -1571,11 +1610,11 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1966189556729368E-2</v>
       </c>
       <c r="T19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6241090916628031E-2</v>
       </c>
     </row>
@@ -1593,9 +1632,11 @@
         <v>500</v>
       </c>
       <c r="E20">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F20">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G20">
@@ -1608,30 +1649,30 @@
         <v>0.46</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3894139886578449E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2022684310018904E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4982993197278914E-9</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="S20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1649,10 +1690,12 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F21">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G21">
         <v>0.39889999999999998</v>
@@ -1664,19 +1707,19 @@
         <v>4.16</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3264000000000005</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="1"/>
-        <v>3.783977440828402E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.5443786982248525E-4</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
-        <v>7.4500739644970412E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.8586815828402361E-4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5313712709952377E-7</v>
       </c>
       <c r="N21">
@@ -1695,11 +1738,11 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1966189556729368E-2</v>
       </c>
       <c r="T21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6241090916628031E-2</v>
       </c>
     </row>
@@ -1717,9 +1760,11 @@
         <v>500</v>
       </c>
       <c r="E22">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F22">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G22">
@@ -1732,30 +1777,30 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0815999999999999E-2</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.795488165680473E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10771079881656806</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.197278911564625E-10</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="S22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1773,10 +1818,12 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F23">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G23">
         <v>0.39889999999999998</v>
@@ -1788,19 +1835,19 @@
         <v>4.16</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.3264000000000005</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="1"/>
-        <v>3.783977440828402E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.5443786982248525E-4</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
-        <v>7.4500739644970412E-4</v>
+        <f t="shared" si="4"/>
+        <v>5.8586815828402361E-4</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5313712709952377E-7</v>
       </c>
       <c r="N23">
@@ -1819,11 +1866,11 @@
         <v>2</v>
       </c>
       <c r="S23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1966189556729368E-2</v>
       </c>
       <c r="T23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6241090916628031E-2</v>
       </c>
     </row>
@@ -1841,9 +1888,11 @@
         <v>500</v>
       </c>
       <c r="E24">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F24">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G24">
@@ -1856,30 +1905,30 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0815999999999999E-2</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.795488165680473E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10771079881656806</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.197278911564625E-10</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="S24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1897,9 +1946,11 @@
         <v>500</v>
       </c>
       <c r="E25">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F25">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G25">
@@ -1912,19 +1963,19 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0815999999999999E-2</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.795488165680473E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10771079881656806</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.197278911564625E-10</v>
       </c>
       <c r="N25">
@@ -1943,11 +1994,11 @@
         <v>2</v>
       </c>
       <c r="S25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1966189556729368E-2</v>
       </c>
       <c r="T25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6241090916628031E-2</v>
       </c>
     </row>
@@ -1965,10 +2016,12 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F26">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G26">
         <v>0.39889999999999998</v>
@@ -1980,19 +2033,19 @@
         <v>2.4</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.44</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7833333333333336E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.5555555555555562E-3</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
-        <v>3.5111111111111116E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.7611111111111113E-3</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8879418400601649E-7</v>
       </c>
       <c r="N26">
@@ -2011,11 +2064,11 @@
         <v>4</v>
       </c>
       <c r="S26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1966189556729368E-2</v>
       </c>
       <c r="T26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6241090916628031E-2</v>
       </c>
     </row>
@@ -2033,10 +2086,12 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F27">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G27">
         <v>0.39889999999999998</v>
@@ -2048,19 +2103,19 @@
         <v>13.8</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="1"/>
-        <v>6.7422810333963451E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.3442554085276202E-4</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
-        <v>1.3274522159210247E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.0438983406847299E-4</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1935322135873655E-5</v>
       </c>
       <c r="N27">
@@ -2079,11 +2134,11 @@
         <v>0.75</v>
       </c>
       <c r="S27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9980005998000689E-3</v>
       </c>
       <c r="T27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8990202939020344E-2</v>
       </c>
     </row>
@@ -2101,9 +2156,11 @@
         <v>500</v>
       </c>
       <c r="E28">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F28">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G28">
@@ -2116,30 +2173,30 @@
         <v>0.46</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7788279773156899E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4045368620037807E-2</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.9965986394557829E-9</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="S28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2157,10 +2214,12 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>0.22</v>
+        <f t="shared" si="0"/>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F29">
-        <v>0.06</v>
+        <f t="shared" si="1"/>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="G29">
         <v>0.36220000000000002</v>
@@ -2172,19 +2231,19 @@
         <v>13.8</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6670867464818303E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.2369250157529922E-4</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
-        <v>1.2728418399495902E-3</v>
+        <f t="shared" si="4"/>
+        <v>9.8857382902751523E-4</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3276118166758699E-4</v>
       </c>
       <c r="N29">
@@ -2203,11 +2262,11 @@
         <v>2</v>
       </c>
       <c r="S29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9980005998000689E-3</v>
       </c>
       <c r="T29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8990202939020344E-2</v>
       </c>
     </row>
@@ -2225,9 +2284,11 @@
         <v>500</v>
       </c>
       <c r="E30">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F30">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G30">
@@ -2240,11 +2301,11 @@
         <v>13.8</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5499684940138624E-4</v>
       </c>
       <c r="L30">
@@ -2252,7 +2313,7 @@
         <v>2.4567527830287748E-4</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0646632653061236E-5</v>
       </c>
       <c r="N30">
@@ -2271,11 +2332,11 @@
         <v>3.75</v>
       </c>
       <c r="S30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9980005998000689E-3</v>
       </c>
       <c r="T30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8990202939020344E-2</v>
       </c>
     </row>
@@ -2293,10 +2354,12 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2308,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="6">
@@ -2336,11 +2399,11 @@
         <v>4</v>
       </c>
       <c r="S31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1966189556729368E-2</v>
       </c>
       <c r="T31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6241090916628031E-2</v>
       </c>
     </row>
@@ -2358,10 +2421,12 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>0.32100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F32">
-        <v>6.3200000000000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="G32">
         <v>0.39889999999999998</v>
@@ -2373,19 +2438,19 @@
         <v>13.8</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6855702583490863E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.3606385213190505E-5</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
-        <v>3.3186305398025618E-5</v>
+        <f t="shared" si="4"/>
+        <v>2.6097458517118246E-5</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9838305339684139E-6</v>
       </c>
       <c r="N32">
@@ -2404,11 +2469,11 @@
         <v>0.5</v>
       </c>
       <c r="S32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9980005998000689E-3</v>
       </c>
       <c r="T32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8990202939020344E-2</v>
       </c>
     </row>
@@ -2426,9 +2491,11 @@
         <v>500</v>
       </c>
       <c r="E33">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F33">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G33">
@@ -2441,30 +2508,30 @@
         <v>0.46</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7788279773156899E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4045368620037807E-2</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.9965986394557829E-9</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="S33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2482,9 +2549,11 @@
         <v>500</v>
       </c>
       <c r="E34">
+        <f t="shared" si="0"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="F34">
+        <f t="shared" si="1"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="G34">
@@ -2497,30 +2566,30 @@
         <v>13.8</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.610000000000007</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1751732829237545E-5</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.7878596933417342E-5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6193877551020412E-5</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="S34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2538,10 +2607,12 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.16</v>
+        <f t="shared" si="0"/>
+        <v>0.128</v>
       </c>
       <c r="F35">
-        <v>5.7000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G35">
         <v>0.35980000000000001</v>
@@ -2553,30 +2624,30 @@
         <v>0.46</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="1"/>
-        <v>0.15122873345935728</v>
+        <f t="shared" si="3"/>
+        <v>0.12098298676748583</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
-        <v>5.3875236294896031E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.1039697542533083E-2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.3513062812673709E-9</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="S35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2584,10 +2655,10 @@
       <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="12"/>
     </row>
     <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -2615,15 +2686,15 @@
       </c>
       <c r="C40" s="1">
         <f>K7+S7</f>
-        <v>1.335863912111912E-2</v>
+        <v>1.2686511416855308E-2</v>
       </c>
       <c r="D40">
         <f>L7+T7</f>
-        <v>5.0187430412240254E-2</v>
+        <v>5.0124418439965526E-2</v>
       </c>
       <c r="E40">
         <f>M7</f>
-        <v>1.3232351306281269E-4</v>
+        <v>1.0984916854683716E-4</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -2655,11 +2726,11 @@
       </c>
       <c r="C42" s="1">
         <f>K9</f>
-        <v>4.7195967233774417E-3</v>
+        <v>9.4097878596933419E-4</v>
       </c>
       <c r="D42">
         <f>L9</f>
-        <v>9.2921655114471739E-4</v>
+        <v>7.3072883847931098E-4</v>
       </c>
       <c r="E42">
         <f>M9</f>
@@ -2675,11 +2746,11 @@
       </c>
       <c r="C43">
         <f>K10+K11+S10</f>
-        <v>9.0777300319526792E-3</v>
+        <v>6.0481904609467636E-3</v>
       </c>
       <c r="D43">
         <f>L10+L11+T10</f>
-        <v>4.9875039613275302E-2</v>
+        <v>4.9715900375109617E-2</v>
       </c>
       <c r="E43">
         <f>M10</f>
@@ -2695,11 +2766,11 @@
       </c>
       <c r="C44">
         <f>K12+K13+S12</f>
-        <v>0.16761194724966355</v>
+        <v>0.13608915791969087</v>
       </c>
       <c r="D44">
         <f>L12+L13+T12</f>
-        <v>0.1051401714330342</v>
+        <v>0.10218490993334926</v>
       </c>
       <c r="E44">
         <f>M12</f>
@@ -2714,15 +2785,15 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:E49" si="6">K14</f>
-        <v>9.4391934467548833E-3</v>
+        <f t="shared" ref="C45:E49" si="8">K14</f>
+        <v>1.8819575719386684E-3</v>
       </c>
       <c r="D45">
-        <f t="shared" si="6"/>
-        <v>1.8584331022894348E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.461457676958622E-3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6709450990223118E-4</v>
       </c>
     </row>
@@ -2734,15 +2805,15 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2350346565847509E-5</v>
       </c>
       <c r="D46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9575719386683468E-5</v>
       </c>
       <c r="E46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2387755102040821E-6</v>
       </c>
     </row>
@@ -2754,15 +2825,15 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <f t="shared" si="6"/>
-        <v>2.225869082840237E-3</v>
+        <f t="shared" si="8"/>
+        <v>4.4378698224852063E-4</v>
       </c>
       <c r="D47">
-        <f t="shared" si="6"/>
-        <v>4.382396449704142E-4</v>
+        <f t="shared" si="8"/>
+        <v>3.4462832840236686E-4</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2537478064677867E-7</v>
       </c>
     </row>
@@ -2774,15 +2845,15 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <f t="shared" si="6"/>
-        <v>1.4839127218934909E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.9585798816568048E-4</v>
       </c>
       <c r="D48">
-        <f t="shared" si="6"/>
-        <v>2.9215976331360948E-4</v>
+        <f t="shared" si="8"/>
+        <v>2.2975221893491125E-4</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1691652043118576E-7</v>
       </c>
       <c r="K48" s="9"/>
@@ -2795,15 +2866,15 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <f t="shared" si="6"/>
-        <v>3.783977440828402E-3</v>
+        <f t="shared" si="8"/>
+        <v>7.5443786982248525E-4</v>
       </c>
       <c r="D49">
-        <f t="shared" si="6"/>
-        <v>7.4500739644970412E-4</v>
+        <f t="shared" si="8"/>
+        <v>5.8586815828402361E-4</v>
       </c>
       <c r="E49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.5313712709952377E-7</v>
       </c>
     </row>
@@ -2816,11 +2887,11 @@
       </c>
       <c r="C50">
         <f>K19+K20+S19</f>
-        <v>2.9644306884136218E-2</v>
+        <v>2.6614767313130304E-2</v>
       </c>
       <c r="D50">
         <f>L19+L20+T19</f>
-        <v>7.9008782623096643E-2</v>
+        <v>7.8849643384930959E-2</v>
       </c>
       <c r="E50">
         <f>M19</f>
@@ -2836,11 +2907,11 @@
       </c>
       <c r="C51">
         <f>K21+K22+S21</f>
-        <v>8.3705048654362499E-2</v>
+        <v>8.0675509083356592E-2</v>
       </c>
       <c r="D51">
         <f>K21+K22+T21</f>
-        <v>0.12797995001426116</v>
+        <v>0.12495041044325525</v>
       </c>
       <c r="E51">
         <f>M21</f>
@@ -2856,11 +2927,11 @@
       </c>
       <c r="C52">
         <f>K23+K24+S23</f>
-        <v>8.3705048654362499E-2</v>
+        <v>8.0675509083356592E-2</v>
       </c>
       <c r="D52">
         <f>L23+L24+T23</f>
-        <v>0.1646968971296458</v>
+        <v>0.16453775789148012</v>
       </c>
       <c r="E52">
         <f>M23</f>
@@ -2896,11 +2967,11 @@
       </c>
       <c r="C54">
         <f>K26+S26</f>
-        <v>2.9799522890062706E-2</v>
+        <v>1.5521745112284924E-2</v>
       </c>
       <c r="D54">
         <f>L26+T26</f>
-        <v>5.9752202027739142E-2</v>
+        <v>5.9002202027739141E-2</v>
       </c>
       <c r="E54">
         <f>M26</f>
@@ -2916,11 +2987,11 @@
       </c>
       <c r="C55">
         <f>K27+K28+S27</f>
-        <v>3.8460508476296604E-2</v>
+        <v>3.7920705913809728E-2</v>
       </c>
       <c r="D55">
         <f>L27+L28+T27</f>
-        <v>9.3168316780650254E-2</v>
+        <v>9.3139961393126622E-2</v>
       </c>
       <c r="E55">
         <f>M27</f>
@@ -2935,12 +3006,12 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:D58" si="7">K29+S29</f>
-        <v>1.4665087346281899E-2</v>
+        <f t="shared" ref="C56:D58" si="9">K29+S29</f>
+        <v>1.0621693101375368E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="7"/>
-        <v>5.0263044778969937E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.9978776768047857E-2</v>
       </c>
       <c r="E56">
         <f>M29</f>
@@ -2955,11 +3026,11 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0152997449201456E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.9235878217323219E-2</v>
       </c>
       <c r="E57">
@@ -2975,11 +3046,11 @@
         <v>21</v>
       </c>
       <c r="C58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1966189556729368E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.6241090916628031E-2</v>
       </c>
       <c r="E58">
@@ -2996,11 +3067,11 @@
       </c>
       <c r="C59">
         <f>K32+K33+S32</f>
-        <v>3.795483739879188E-2</v>
+        <v>3.7819886758170156E-2</v>
       </c>
       <c r="D59">
         <f>L32+L33+T32</f>
-        <v>9.3068757864456175E-2</v>
+        <v>9.306166901757526E-2</v>
       </c>
       <c r="E59">
         <f>M32</f>
@@ -3015,15 +3086,15 @@
         <v>22</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:E61" si="8">K34</f>
+        <f t="shared" ref="C60:E61" si="10">K34</f>
         <v>6.1751732829237545E-5</v>
       </c>
       <c r="D60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.7878596933417342E-5</v>
       </c>
       <c r="E60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6193877551020412E-5</v>
       </c>
     </row>
@@ -3035,15 +3106,15 @@
         <v>23</v>
       </c>
       <c r="C61">
-        <f t="shared" si="8"/>
-        <v>0.15122873345935728</v>
+        <f t="shared" si="10"/>
+        <v>0.12098298676748583</v>
       </c>
       <c r="D61">
-        <f t="shared" si="8"/>
-        <v>5.3875236294896031E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.1039697542533083E-2</v>
       </c>
       <c r="E61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.3513062812673709E-9</v>
       </c>
     </row>
@@ -3073,10 +3144,2490 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="2"/>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <f>F4*B3/F3</f>
+        <v>0.35976740506329108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="2"/>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="4">
+        <f>F4*K3/F3</f>
+        <v>0.29412563291139238</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="4"/>
+      <c r="O5" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.16</v>
+      </c>
+      <c r="F7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <v>13.8</v>
+      </c>
+      <c r="J7">
+        <f>I7^2/4</f>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K7" s="6">
+        <f>(E7*H7/1000)/J7</f>
+        <v>3.3606385213190504E-3</v>
+      </c>
+      <c r="L7">
+        <f>(F7*H7/1000)/J7</f>
+        <v>1.1972274732199118E-3</v>
+      </c>
+      <c r="M7">
+        <f>H7*J7/(G7*1000000000)</f>
+        <v>1.3232351306281269E-4</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f>(O7/SQRT(1+P7^2))/100</f>
+        <v>9.9980005998000689E-3</v>
+      </c>
+      <c r="T7">
+        <f>P7*S7</f>
+        <v>4.8990202939020344E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H8">
+        <v>1851</v>
+      </c>
+      <c r="I8">
+        <v>13.8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J35" si="0">I8^2/4</f>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ref="K8:K35" si="1">(E8*H8/1000)/J8</f>
+        <v>1.1430245746691869E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L35" si="2">(F8*H8/1000)/J8</f>
+        <v>1.8117328292375549E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M35" si="3">H8*J8/(G8*1000000000)</f>
+        <v>2.9974867346938781E-4</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S35" si="4">(O8/SQRT(1+P8^2))/100</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T35" si="5">P8*S8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F9">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H9">
+        <v>700</v>
+      </c>
+      <c r="I9">
+        <v>13.8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="1"/>
+        <v>4.7195967233774417E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>9.2921655114471739E-4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>8.354725495111559E-5</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H10">
+        <v>1851</v>
+      </c>
+      <c r="I10">
+        <v>13.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1430245746691869E-3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>1.8117328292375549E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>2.9974867346938781E-4</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>4.75</v>
+      </c>
+      <c r="P10">
+        <v>11.4</v>
+      </c>
+      <c r="Q10">
+        <v>3.75</v>
+      </c>
+      <c r="R10">
+        <v>3.75</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>4.150728016455091E-3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>4.7318299387588039E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F11">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H11">
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>4.16</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>4.3264000000000005</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="1"/>
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.16</v>
+      </c>
+      <c r="F12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>13.8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="1"/>
+        <v>3.3606385213190504E-3</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1.1972274732199118E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1.3232351306281269E-4</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>9.9980005998000689E-3</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>4.8990202939020344E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.16</v>
+      </c>
+      <c r="F13">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="H13">
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <v>0.46</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.15425330812854443</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>5.4952741020793942E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>7.4983324068927195E-9</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F14">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H14">
+        <v>1400</v>
+      </c>
+      <c r="I14">
+        <v>13.8</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="1"/>
+        <v>9.4391934467548833E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>1.8584331022894348E-3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>1.6709450990223118E-4</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>13.8</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2350346565847509E-5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>1.9575719386683468E-5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>3.2387755102040821E-6</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F16">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>4.16</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>4.3264000000000005</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="1"/>
+        <v>2.225869082840237E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>4.382396449704142E-4</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>3.2537478064677867E-7</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F17">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>4.16</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>4.3264000000000005</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4839127218934909E-3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>2.9215976331360948E-4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>2.1691652043118576E-7</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F18">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H18">
+        <v>51</v>
+      </c>
+      <c r="I18">
+        <v>4.16</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>4.3264000000000005</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="1"/>
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F19">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H19">
+        <v>51</v>
+      </c>
+      <c r="I19">
+        <v>4.16</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>4.3264000000000005</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="1"/>
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>5.75</v>
+      </c>
+      <c r="P19">
+        <v>4.7</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>1.1966189556729368E-2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>5.6241090916628031E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="E20">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>0.46</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3894139886578449E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>2.2022684310018904E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>4.4982993197278914E-9</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F21">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H21">
+        <v>51</v>
+      </c>
+      <c r="I21">
+        <v>4.16</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>4.3264000000000005</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="1"/>
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>5.75</v>
+      </c>
+      <c r="P21">
+        <v>4.7</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>1.1966189556729368E-2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>5.6241090916628031E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+      <c r="E22">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F22">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1.0815999999999999E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="1"/>
+        <v>6.795488165680473E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.10771079881656806</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>9.197278911564625E-10</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F23">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H23">
+        <v>51</v>
+      </c>
+      <c r="I23">
+        <v>4.16</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>4.3264000000000005</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="1"/>
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>5.75</v>
+      </c>
+      <c r="P23">
+        <v>4.7</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>1.1966189556729368E-2</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>5.6241090916628031E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>500</v>
+      </c>
+      <c r="E24">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1.0815999999999999E-2</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="1"/>
+        <v>6.795488165680473E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.10771079881656806</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>9.197278911564625E-10</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>500</v>
+      </c>
+      <c r="E25">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1.0815999999999999E-2</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="1"/>
+        <v>6.795488165680473E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0.10771079881656806</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>9.197278911564625E-10</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>5.75</v>
+      </c>
+      <c r="P25">
+        <v>4.7</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>1.1966189556729368E-2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>5.6241090916628031E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F26">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H26">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>2.4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7833333333333336E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>3.5111111111111116E-3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>2.8879418400601649E-7</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>5.75</v>
+      </c>
+      <c r="P26">
+        <v>4.7</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>1.1966189556729368E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>5.6241090916628031E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F27">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>13.8</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7422810333963451E-4</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>1.3274522159210247E-4</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>1.1935322135873655E-5</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>0.75</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>9.9980005998000689E-3</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>4.8990202939020344E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>0.46</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="1"/>
+        <v>2.7788279773156899E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>4.4045368620037807E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>8.9965986394557829E-9</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0.22</v>
+      </c>
+      <c r="F29">
+        <v>0.06</v>
+      </c>
+      <c r="G29">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="H29">
+        <v>1010</v>
+      </c>
+      <c r="I29">
+        <v>13.8</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6670867464818303E-3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>1.2728418399495902E-3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>1.3276118166758699E-4</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>9.9980005998000689E-3</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>4.8990202939020344E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>500</v>
+      </c>
+      <c r="E30">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H30">
+        <v>251</v>
+      </c>
+      <c r="I30">
+        <v>13.8</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5499684940138624E-4</v>
+      </c>
+      <c r="L30">
+        <f>(F30*H30/1000)/J30</f>
+        <v>2.4567527830287748E-4</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>4.0646632653061236E-5</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>3.75</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>9.9980005998000689E-3</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="5"/>
+        <v>4.8990202939020344E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>5.75</v>
+      </c>
+      <c r="P31">
+        <v>4.7</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>1.1966189556729368E-2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="5"/>
+        <v>5.6241090916628031E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F32">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="H32">
+        <v>25</v>
+      </c>
+      <c r="I32">
+        <v>13.8</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6855702583490863E-4</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>3.3186305398025618E-5</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>2.9838305339684139E-6</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>0.5</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>9.9980005998000689E-3</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="5"/>
+        <v>4.8990202939020344E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="E33">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33">
+        <v>0.46</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="1"/>
+        <v>2.7788279773156899E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>4.4045368620037807E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>8.9965986394557829E-9</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>500</v>
+      </c>
+      <c r="E34">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>13.8</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>47.610000000000007</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="1"/>
+        <v>6.1751732829237545E-5</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>9.7878596933417342E-5</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>1.6193877551020412E-5</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0.16</v>
+      </c>
+      <c r="F35">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="H35">
+        <v>50</v>
+      </c>
+      <c r="I35">
+        <v>0.46</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="1"/>
+        <v>0.15122873345935728</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>5.3875236294896031E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>7.3513062812673709E-9</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <f>K7+S7</f>
+        <v>1.335863912111912E-2</v>
+      </c>
+      <c r="D40">
+        <f>L7+T7</f>
+        <v>5.0187430412240254E-2</v>
+      </c>
+      <c r="E40">
+        <f>M7</f>
+        <v>1.3232351306281269E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <f>K8</f>
+        <v>1.1430245746691869E-3</v>
+      </c>
+      <c r="D41">
+        <f>L8</f>
+        <v>1.8117328292375549E-3</v>
+      </c>
+      <c r="E41">
+        <f>M8</f>
+        <v>2.9974867346938781E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="8">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <f>K9</f>
+        <v>4.7195967233774417E-3</v>
+      </c>
+      <c r="D42">
+        <f>L9</f>
+        <v>9.2921655114471739E-4</v>
+      </c>
+      <c r="E42">
+        <f>M9</f>
+        <v>8.354725495111559E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <f>K10+K11+S10</f>
+        <v>9.0777300319526792E-3</v>
+      </c>
+      <c r="D43">
+        <f>L10+L11+T10</f>
+        <v>4.9875039613275302E-2</v>
+      </c>
+      <c r="E43">
+        <f>M10</f>
+        <v>2.9974867346938781E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <f>K12+K13+S12</f>
+        <v>0.16761194724966355</v>
+      </c>
+      <c r="D44">
+        <f>L12+L13+T12</f>
+        <v>0.1051401714330342</v>
+      </c>
+      <c r="E44">
+        <f>M12</f>
+        <v>1.3232351306281269E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:E49" si="6">K14</f>
+        <v>9.4391934467548833E-3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>1.8584331022894348E-3</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>1.6709450990223118E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="6"/>
+        <v>1.2350346565847509E-5</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="6"/>
+        <v>1.9575719386683468E-5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>3.2387755102040821E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="6"/>
+        <v>2.225869082840237E-3</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="6"/>
+        <v>4.382396449704142E-4</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>3.2537478064677867E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="6"/>
+        <v>1.4839127218934909E-3</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="6"/>
+        <v>2.9215976331360948E-4</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>2.1691652043118576E-7</v>
+      </c>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="6"/>
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>5.5313712709952377E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <f>K19+K20+S19</f>
+        <v>2.9644306884136218E-2</v>
+      </c>
+      <c r="D50">
+        <f>L19+L20+T19</f>
+        <v>7.9008782623096643E-2</v>
+      </c>
+      <c r="E50">
+        <f>M19</f>
+        <v>5.5313712709952377E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <f>K21+K22+S21</f>
+        <v>8.3705048654362499E-2</v>
+      </c>
+      <c r="D51">
+        <f>K21+K22+T21</f>
+        <v>0.12797995001426116</v>
+      </c>
+      <c r="E51">
+        <f>M21</f>
+        <v>5.5313712709952377E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <f>K23+K24+S23</f>
+        <v>8.3705048654362499E-2</v>
+      </c>
+      <c r="D52">
+        <f>L23+L24+T23</f>
+        <v>0.1646968971296458</v>
+      </c>
+      <c r="E52">
+        <f>M23</f>
+        <v>5.5313712709952377E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <f>K25+S25</f>
+        <v>7.9921071213534103E-2</v>
+      </c>
+      <c r="D53">
+        <f>L25+T25</f>
+        <v>0.16395188973319608</v>
+      </c>
+      <c r="E53">
+        <f>M25</f>
+        <v>9.197278911564625E-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <f>K26+S26</f>
+        <v>2.9799522890062706E-2</v>
+      </c>
+      <c r="D54">
+        <f>L26+T26</f>
+        <v>5.9752202027739142E-2</v>
+      </c>
+      <c r="E54">
+        <f>M26</f>
+        <v>2.8879418400601649E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <f>K27+K28+S27</f>
+        <v>3.8460508476296604E-2</v>
+      </c>
+      <c r="D55">
+        <f>L27+L28+T27</f>
+        <v>9.3168316780650254E-2</v>
+      </c>
+      <c r="E55">
+        <f>M27</f>
+        <v>1.1935322135873655E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:D58" si="7">K29+S29</f>
+        <v>1.4665087346281899E-2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="7"/>
+        <v>5.0263044778969937E-2</v>
+      </c>
+      <c r="E56">
+        <f>M29</f>
+        <v>1.3276118166758699E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="7"/>
+        <v>1.0152997449201456E-2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="7"/>
+        <v>4.9235878217323219E-2</v>
+      </c>
+      <c r="E57">
+        <f>M30</f>
+        <v>4.0646632653061236E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="7"/>
+        <v>1.1966189556729368E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="7"/>
+        <v>5.6241090916628031E-2</v>
+      </c>
+      <c r="E58">
+        <f>M31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <f>K32+K33+S32</f>
+        <v>3.795483739879188E-2</v>
+      </c>
+      <c r="D59">
+        <f>L32+L33+T32</f>
+        <v>9.3068757864456175E-2</v>
+      </c>
+      <c r="E59">
+        <f>M32</f>
+        <v>2.9838305339684139E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:E61" si="8">K34</f>
+        <v>6.1751732829237545E-5</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="8"/>
+        <v>9.7878596933417342E-5</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="8"/>
+        <v>1.6193877551020412E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="8"/>
+        <v>0.15122873345935728</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="8"/>
+        <v>5.3875236294896031E-2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="8"/>
+        <v>7.3513062812673709E-9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="9"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="9"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3815,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -3865,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -3915,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -3965,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -4015,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4065,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -4115,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7</v>
       </c>
@@ -4165,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -4215,12 +6766,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4260,8 +6811,17 @@
       <c r="M27">
         <v>360</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4301,8 +6861,17 @@
       <c r="M28">
         <v>360</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T28" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4342,8 +6911,17 @@
       <c r="M29">
         <v>360</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4383,8 +6961,23 @@
       <c r="M30">
         <v>360</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>1.1430245746691899E-3</v>
+      </c>
+      <c r="Q30">
+        <v>1.8117328292375549E-3</v>
+      </c>
+      <c r="T30" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -4424,8 +7017,26 @@
       <c r="M31">
         <v>360</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="Q31">
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="R31">
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="T31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4465,8 +7076,26 @@
       <c r="M32">
         <v>360</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>3.3606385213190504E-3</v>
+      </c>
+      <c r="Q32">
+        <v>1.1972274732199118E-3</v>
+      </c>
+      <c r="R32">
+        <v>1.3232351306281269E-4</v>
+      </c>
+      <c r="T32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4506,8 +7135,26 @@
       <c r="M33">
         <v>360</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>0.15425330812854443</v>
+      </c>
+      <c r="Q33">
+        <v>5.4952741020793942E-2</v>
+      </c>
+      <c r="R33">
+        <v>7.4983324068927195E-9</v>
+      </c>
+      <c r="T33" t="s">
+        <v>38</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
@@ -4547,8 +7194,17 @@
       <c r="M34">
         <v>360</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -4588,8 +7244,17 @@
       <c r="M35">
         <v>360</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T35" t="s">
+        <v>40</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9</v>
       </c>
@@ -4629,8 +7294,17 @@
       <c r="M36">
         <v>360</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T36" t="s">
+        <v>41</v>
+      </c>
+      <c r="U36">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4670,8 +7344,17 @@
       <c r="M37">
         <v>360</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T37" t="s">
+        <v>42</v>
+      </c>
+      <c r="U37">
+        <v>5</v>
+      </c>
+      <c r="V37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -4711,8 +7394,17 @@
       <c r="M38">
         <v>360</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T38" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38">
+        <v>9</v>
+      </c>
+      <c r="V38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9</v>
       </c>
@@ -4752,8 +7444,26 @@
       <c r="M39">
         <v>360</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="Q39">
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="R39">
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="T39" t="s">
+        <v>44</v>
+      </c>
+      <c r="U39">
+        <v>8</v>
+      </c>
+      <c r="V39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10</v>
       </c>
@@ -4793,8 +7503,26 @@
       <c r="M40">
         <v>360</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>1.3894139886578449E-2</v>
+      </c>
+      <c r="Q40">
+        <v>2.2022684310018904E-2</v>
+      </c>
+      <c r="R40">
+        <v>4.4982993197278914E-9</v>
+      </c>
+      <c r="T40" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40">
+        <v>8</v>
+      </c>
+      <c r="V40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10</v>
       </c>
@@ -4834,8 +7562,26 @@
       <c r="M41">
         <v>360</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="Q41">
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="R41">
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="T41" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41">
+        <v>8</v>
+      </c>
+      <c r="V41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -4875,8 +7621,26 @@
       <c r="M42">
         <v>360</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>6.795488165680473E-2</v>
+      </c>
+      <c r="Q42">
+        <v>0.10771079881656806</v>
+      </c>
+      <c r="R42">
+        <v>9.197278911564625E-10</v>
+      </c>
+      <c r="T42" t="s">
+        <v>47</v>
+      </c>
+      <c r="U42">
+        <v>8</v>
+      </c>
+      <c r="V42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -4916,8 +7680,26 @@
       <c r="M43">
         <v>360</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="Q43">
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="R43">
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="T43" t="s">
+        <v>48</v>
+      </c>
+      <c r="U43">
+        <v>9</v>
+      </c>
+      <c r="V43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -4957,8 +7739,26 @@
       <c r="M44">
         <v>360</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>6.795488165680473E-2</v>
+      </c>
+      <c r="Q44">
+        <v>0.10771079881656806</v>
+      </c>
+      <c r="R44">
+        <v>9.197278911564625E-10</v>
+      </c>
+      <c r="T44" t="s">
+        <v>49</v>
+      </c>
+      <c r="U44">
+        <v>9</v>
+      </c>
+      <c r="V44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -4998,8 +7798,17 @@
       <c r="M45">
         <v>360</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T45" t="s">
+        <v>50</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+      <c r="V45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6</v>
       </c>
@@ -5039,8 +7848,17 @@
       <c r="M46">
         <v>360</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T46" t="s">
+        <v>51</v>
+      </c>
+      <c r="U46">
+        <v>10</v>
+      </c>
+      <c r="V46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>7</v>
       </c>
@@ -5080,8 +7898,26 @@
       <c r="M47">
         <v>360</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>6.7422810333963451E-4</v>
+      </c>
+      <c r="Q47">
+        <v>1.3274522159210247E-4</v>
+      </c>
+      <c r="R47">
+        <v>1.1935322135873655E-5</v>
+      </c>
+      <c r="T47" t="s">
+        <v>52</v>
+      </c>
+      <c r="U47">
+        <v>6</v>
+      </c>
+      <c r="V47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -5121,8 +7957,1222 @@
       <c r="M48">
         <v>360</v>
       </c>
+      <c r="P48">
+        <v>2.7788279773156899E-2</v>
+      </c>
+      <c r="Q48">
+        <v>4.4045368620037807E-2</v>
+      </c>
+      <c r="R48">
+        <v>8.9965986394557829E-9</v>
+      </c>
+      <c r="T48" t="s">
+        <v>53</v>
+      </c>
+      <c r="U48">
+        <v>6</v>
+      </c>
+      <c r="V48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T49" t="s">
+        <v>54</v>
+      </c>
+      <c r="U49">
+        <v>6</v>
+      </c>
+      <c r="V49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>3.3606385213190504E-3</v>
+      </c>
+      <c r="D50">
+        <v>1.1972274732199118E-3</v>
+      </c>
+      <c r="E50">
+        <v>1.3232351306281269E-4</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>-360</v>
+      </c>
+      <c r="M50">
+        <v>360</v>
+      </c>
+      <c r="T50" t="s">
+        <v>55</v>
+      </c>
+      <c r="U50">
+        <v>7</v>
+      </c>
+      <c r="V50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1.1430245746691869E-3</v>
+      </c>
+      <c r="D51">
+        <v>1.8117328292375549E-3</v>
+      </c>
+      <c r="E51">
+        <v>2.9974867346938781E-4</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>-360</v>
+      </c>
+      <c r="M51">
+        <v>360</v>
+      </c>
+      <c r="T51" t="s">
+        <v>56</v>
+      </c>
+      <c r="U51">
+        <v>8</v>
+      </c>
+      <c r="V51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="8">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>4.7195967233774417E-3</v>
+      </c>
+      <c r="D52">
+        <v>9.2921655114471739E-4</v>
+      </c>
+      <c r="E52">
+        <v>8.354725495111559E-5</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>7</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>-360</v>
+      </c>
+      <c r="M52">
+        <v>360</v>
+      </c>
+      <c r="T52" t="s">
+        <v>57</v>
+      </c>
+      <c r="U52">
+        <v>6</v>
+      </c>
+      <c r="V52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <f>P30+P31</f>
+        <v>4.9270020154975917E-3</v>
+      </c>
+      <c r="D53">
+        <f>Q30+Q31</f>
+        <v>2.5567402256872589E-3</v>
+      </c>
+      <c r="E53">
+        <v>2.9974867346938781E-4</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>-360</v>
+      </c>
+      <c r="M53">
+        <v>360</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53">
+        <v>6</v>
+      </c>
+      <c r="V53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <f>P32+P33</f>
+        <v>0.15761394664986347</v>
+      </c>
+      <c r="D54">
+        <f>Q32+Q33</f>
+        <v>5.6149968494013852E-2</v>
+      </c>
+      <c r="E54">
+        <v>1.3232351306281269E-4</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>-360</v>
+      </c>
+      <c r="M54">
+        <v>360</v>
+      </c>
+      <c r="T54" t="s">
+        <v>59</v>
+      </c>
+      <c r="U54">
+        <v>7</v>
+      </c>
+      <c r="V54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>9.4391934467548833E-3</v>
+      </c>
+      <c r="D55">
+        <v>1.8584331022894348E-3</v>
+      </c>
+      <c r="E55">
+        <v>1.6709450990223118E-4</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>-360</v>
+      </c>
+      <c r="M55">
+        <v>360</v>
+      </c>
+      <c r="T55" t="s">
+        <v>60</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>1.2350346565847509E-5</v>
+      </c>
+      <c r="D56">
+        <v>1.9575719386683468E-5</v>
+      </c>
+      <c r="E56">
+        <v>3.2387755102040821E-6</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="H56">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>-360</v>
+      </c>
+      <c r="M56">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>2.225869082840237E-3</v>
+      </c>
+      <c r="D57">
+        <v>4.382396449704142E-4</v>
+      </c>
+      <c r="E57">
+        <v>3.2537478064677867E-7</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>-360</v>
+      </c>
+      <c r="M57">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>1.4839127218934909E-3</v>
+      </c>
+      <c r="D58">
+        <v>2.9215976331360948E-4</v>
+      </c>
+      <c r="E58">
+        <v>2.1691652043118576E-7</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>-360</v>
+      </c>
+      <c r="M58">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>3.783977440828402E-3</v>
+      </c>
+      <c r="D59">
+        <v>7.4500739644970412E-4</v>
+      </c>
+      <c r="E59">
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>-360</v>
+      </c>
+      <c r="M59">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <f>P39+P40</f>
+        <v>1.7678117327406852E-2</v>
+      </c>
+      <c r="D60">
+        <f>Q39+Q40</f>
+        <v>2.2767691706468609E-2</v>
+      </c>
+      <c r="E60">
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>-360</v>
+      </c>
+      <c r="M60">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <f>P41+P42</f>
+        <v>7.1738859097633126E-2</v>
+      </c>
+      <c r="D61">
+        <f>Q41+Q42</f>
+        <v>0.10845580621301776</v>
+      </c>
+      <c r="E61">
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>-360</v>
+      </c>
+      <c r="M61">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <f>P43+P44</f>
+        <v>7.1738859097633126E-2</v>
+      </c>
+      <c r="D62">
+        <f>Q43+Q44</f>
+        <v>0.10845580621301776</v>
+      </c>
+      <c r="E62">
+        <v>5.5313712709952377E-7</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+      <c r="H62">
+        <v>7</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>-360</v>
+      </c>
+      <c r="M62">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>6.795488165680473E-2</v>
+      </c>
+      <c r="D63">
+        <v>0.10771079881656806</v>
+      </c>
+      <c r="E63">
+        <v>9.197278911564625E-10</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>-360</v>
+      </c>
+      <c r="M63">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>1.7833333333333336E-2</v>
+      </c>
+      <c r="D64">
+        <v>3.5111111111111116E-3</v>
+      </c>
+      <c r="E64">
+        <v>2.8879418400601649E-7</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>-360</v>
+      </c>
+      <c r="M64">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <f>P47+P48</f>
+        <v>2.8462507876496533E-2</v>
+      </c>
+      <c r="D65">
+        <f>Q47+Q48</f>
+        <v>4.417811384162991E-2</v>
+      </c>
+      <c r="E65">
+        <v>1.1935322135873655E-5</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>-360</v>
+      </c>
+      <c r="M65">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>4.6670867464818303E-3</v>
+      </c>
+      <c r="D66">
+        <v>1.2728418399495902E-3</v>
+      </c>
+      <c r="E66">
+        <v>1.3276118166758699E-4</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>7</v>
+      </c>
+      <c r="H66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>-360</v>
+      </c>
+      <c r="M66">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>1.5499684940138624E-4</v>
+      </c>
+      <c r="D67">
+        <v>2.4567527830287748E-4</v>
+      </c>
+      <c r="E67">
+        <v>4.0646632653061236E-5</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>7</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>-360</v>
+      </c>
+      <c r="M67">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>1.1966189556729368E-2</v>
+      </c>
+      <c r="D68">
+        <v>5.6241090916628031E-2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68">
+        <v>7</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>-360</v>
+      </c>
+      <c r="M68">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="D69">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E69">
+        <v>2.9838305339684139E-6</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>7</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>-360</v>
+      </c>
+      <c r="M69">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>6.1751732829237545E-5</v>
+      </c>
+      <c r="D70">
+        <v>9.7878596933417342E-5</v>
+      </c>
+      <c r="E70">
+        <v>1.6193877551020412E-5</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <v>7</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>-360</v>
+      </c>
+      <c r="M70">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>0.15122873345935728</v>
+      </c>
+      <c r="D71">
+        <v>5.3875236294896031E-2</v>
+      </c>
+      <c r="E71">
+        <v>7.3513062812673709E-9</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+      <c r="H71">
+        <v>7</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>-360</v>
+      </c>
+      <c r="M71">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>0.128</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="10"/>
+      <c r="J77" t="s">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M77" s="13"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="10"/>
+      <c r="J78" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="3">
+        <f>F79*B78/F78</f>
+        <v>0.43341247484909456</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="10"/>
+      <c r="J79" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" s="4">
+        <f>F79*K78/F78</f>
+        <v>0.37401891348088528</v>
+      </c>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>0.16</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="13"/>
+      <c r="I83" s="10"/>
+      <c r="J83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="13"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="13"/>
+      <c r="I84" s="10"/>
+      <c r="J84" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="3">
+        <f>F85*B84/F84</f>
+        <v>0.35976740506329108</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="13"/>
+      <c r="I85" s="10"/>
+      <c r="J85" t="s">
+        <v>8</v>
+      </c>
+      <c r="K85" s="4">
+        <f>F85*K84/F84</f>
+        <v>0.29412563291139238</v>
+      </c>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="L83:M83"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>